--- a/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica.xlsx
+++ b/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -97,9 +97,6 @@
     <t>cartola scheuer</t>
   </si>
   <si>
-    <t>Remo Santo Ângelo</t>
-  </si>
-  <si>
     <t>Analove10 ITAQUI GRANDE!!</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/3851966</t>
-  </si>
-  <si>
-    <t>https://cartola.globo.com/#!/time/18187555</t>
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/44574236</t>
@@ -753,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,7 +772,7 @@
         <v>3246608</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -789,7 +783,7 @@
         <v>18421230</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -800,7 +794,7 @@
         <v>47546604</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -811,7 +805,7 @@
         <v>3708025</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -822,7 +816,7 @@
         <v>528730</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -833,7 +827,7 @@
         <v>1148959</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -844,7 +838,7 @@
         <v>3447341</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -855,7 +849,7 @@
         <v>896842</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -866,7 +860,7 @@
         <v>29199152</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -877,7 +871,7 @@
         <v>14227419</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -888,7 +882,7 @@
         <v>159074</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -899,7 +893,7 @@
         <v>18223508</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -910,7 +904,7 @@
         <v>28676425</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -921,7 +915,7 @@
         <v>216066</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -932,7 +926,7 @@
         <v>13951133</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -943,7 +937,7 @@
         <v>18344271</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -954,7 +948,7 @@
         <v>18642587</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -965,7 +959,7 @@
         <v>2760207</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -976,7 +970,7 @@
         <v>48498051</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -987,7 +981,7 @@
         <v>25313333</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -998,7 +992,7 @@
         <v>29411306</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1009,7 +1003,7 @@
         <v>479510</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1020,7 +1014,7 @@
         <v>18661583</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1031,7 +1025,7 @@
         <v>3851966</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1039,10 +1033,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>18187555</v>
+        <v>44574236</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1050,10 +1044,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>44574236</v>
+        <v>387186</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1061,10 +1055,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>387186</v>
+        <v>44810918</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1072,10 +1066,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>44810918</v>
+        <v>14696986</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1083,10 +1077,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>14696986</v>
+        <v>18346776</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1094,10 +1088,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>18346776</v>
+        <v>3914981</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1105,10 +1099,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>3914981</v>
+        <v>9823692</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1116,10 +1110,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>9823692</v>
+        <v>47543456</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1127,10 +1121,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>47543456</v>
+        <v>3424598</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1138,10 +1132,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>3424598</v>
+        <v>5823700</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1149,10 +1143,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>5823700</v>
+        <v>29228373</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1160,10 +1154,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>29228373</v>
+        <v>6148913</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1171,10 +1165,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>6148913</v>
+        <v>1273719</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1182,10 +1176,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>1273719</v>
+        <v>4911779</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1193,10 +1187,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>4911779</v>
+        <v>2602301</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1204,10 +1198,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>2602301</v>
+        <v>212042</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1215,10 +1209,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>212042</v>
+        <v>25565675</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1226,10 +1220,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>25565675</v>
+        <v>25751748</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1237,10 +1231,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>25751748</v>
+        <v>49355335</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1248,10 +1242,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>49355335</v>
+        <v>49180400</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1259,10 +1253,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>49180400</v>
+        <v>17887202</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1270,10 +1264,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>17887202</v>
+        <v>186283</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1281,10 +1275,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>186283</v>
+        <v>20696550</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1292,10 +1286,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>20696550</v>
+        <v>25401606</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1303,10 +1297,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>25401606</v>
+        <v>44536510</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1314,10 +1308,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>44536510</v>
+        <v>8319052</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1325,10 +1319,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>8319052</v>
+        <v>24468241</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1336,10 +1330,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>24468241</v>
+        <v>25811332</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1347,10 +1341,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>25811332</v>
+        <v>13707047</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1358,10 +1352,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>13707047</v>
+        <v>117598</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1369,10 +1363,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>117598</v>
+        <v>14124559</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1380,10 +1374,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>14124559</v>
+        <v>8707471</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1391,10 +1385,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>8707471</v>
+        <v>20340994</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1402,10 +1396,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>20340994</v>
+        <v>50189029</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1413,21 +1407,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>50189029</v>
+        <v>5664592</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61">
-        <v>5664592</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1456,42 +1439,41 @@
     <hyperlink ref="C23" r:id="rId22" location="!/time/479510"/>
     <hyperlink ref="C24" r:id="rId23" location="!/time/18661583"/>
     <hyperlink ref="C25" r:id="rId24" location="!/time/3851966"/>
-    <hyperlink ref="C26" r:id="rId25" location="!/time/18187555"/>
-    <hyperlink ref="C27" r:id="rId26" location="!/time/44574236"/>
-    <hyperlink ref="C28" r:id="rId27" location="!/time/387186"/>
-    <hyperlink ref="C29" r:id="rId28" location="!/time/44810918"/>
-    <hyperlink ref="C30" r:id="rId29" location="!/time/14696986"/>
-    <hyperlink ref="C31" r:id="rId30" location="!/time/18346776"/>
-    <hyperlink ref="C32" r:id="rId31" location="!/time/3914981"/>
-    <hyperlink ref="C33" r:id="rId32" location="!/time/9823692"/>
-    <hyperlink ref="C34" r:id="rId33" location="!/time/47543456"/>
-    <hyperlink ref="C35" r:id="rId34" location="!/time/3424598"/>
-    <hyperlink ref="C36" r:id="rId35" location="!/time/5823700"/>
-    <hyperlink ref="C37" r:id="rId36" location="!/time/29228373"/>
-    <hyperlink ref="C38" r:id="rId37" location="!/time/6148913"/>
-    <hyperlink ref="C39" r:id="rId38" location="!/time/1273719"/>
-    <hyperlink ref="C40" r:id="rId39" location="!/time/4911779"/>
-    <hyperlink ref="C41" r:id="rId40" location="!/time/2602301"/>
-    <hyperlink ref="C42" r:id="rId41" location="!/time/212042"/>
-    <hyperlink ref="C43" r:id="rId42" location="!/time/25565675"/>
-    <hyperlink ref="C44" r:id="rId43" location="!/time/25751748"/>
-    <hyperlink ref="C45" r:id="rId44" location="!/time/49355335"/>
-    <hyperlink ref="C46" r:id="rId45" location="!/time/49180400"/>
-    <hyperlink ref="C47" r:id="rId46" location="!/time/17887202"/>
-    <hyperlink ref="C48" r:id="rId47" location="!/time/186283"/>
-    <hyperlink ref="C49" r:id="rId48" location="!/time/20696550"/>
-    <hyperlink ref="C50" r:id="rId49" location="!/time/25401606"/>
-    <hyperlink ref="C51" r:id="rId50" location="!/time/44536510"/>
-    <hyperlink ref="C52" r:id="rId51" location="!/time/8319052"/>
-    <hyperlink ref="C53" r:id="rId52" location="!/time/24468241"/>
-    <hyperlink ref="C54" r:id="rId53" location="!/time/25811332"/>
-    <hyperlink ref="C55" r:id="rId54" location="!/time/13707047"/>
-    <hyperlink ref="C56" r:id="rId55" location="!/time/117598"/>
-    <hyperlink ref="C57" r:id="rId56" location="!/time/14124559"/>
-    <hyperlink ref="C58" r:id="rId57" location="!/time/8707471"/>
-    <hyperlink ref="C59" r:id="rId58" location="!/time/20340994"/>
-    <hyperlink ref="C60" r:id="rId59" location="!/time/50189029"/>
-    <hyperlink ref="C61" r:id="rId60" location="!/time/5664592"/>
+    <hyperlink ref="C26" r:id="rId25" location="!/time/44574236"/>
+    <hyperlink ref="C27" r:id="rId26" location="!/time/387186"/>
+    <hyperlink ref="C28" r:id="rId27" location="!/time/44810918"/>
+    <hyperlink ref="C29" r:id="rId28" location="!/time/14696986"/>
+    <hyperlink ref="C30" r:id="rId29" location="!/time/18346776"/>
+    <hyperlink ref="C31" r:id="rId30" location="!/time/3914981"/>
+    <hyperlink ref="C32" r:id="rId31" location="!/time/9823692"/>
+    <hyperlink ref="C33" r:id="rId32" location="!/time/47543456"/>
+    <hyperlink ref="C34" r:id="rId33" location="!/time/3424598"/>
+    <hyperlink ref="C35" r:id="rId34" location="!/time/5823700"/>
+    <hyperlink ref="C36" r:id="rId35" location="!/time/29228373"/>
+    <hyperlink ref="C37" r:id="rId36" location="!/time/6148913"/>
+    <hyperlink ref="C38" r:id="rId37" location="!/time/1273719"/>
+    <hyperlink ref="C39" r:id="rId38" location="!/time/4911779"/>
+    <hyperlink ref="C40" r:id="rId39" location="!/time/2602301"/>
+    <hyperlink ref="C41" r:id="rId40" location="!/time/212042"/>
+    <hyperlink ref="C42" r:id="rId41" location="!/time/25565675"/>
+    <hyperlink ref="C43" r:id="rId42" location="!/time/25751748"/>
+    <hyperlink ref="C44" r:id="rId43" location="!/time/49355335"/>
+    <hyperlink ref="C45" r:id="rId44" location="!/time/49180400"/>
+    <hyperlink ref="C46" r:id="rId45" location="!/time/17887202"/>
+    <hyperlink ref="C47" r:id="rId46" location="!/time/186283"/>
+    <hyperlink ref="C48" r:id="rId47" location="!/time/20696550"/>
+    <hyperlink ref="C49" r:id="rId48" location="!/time/25401606"/>
+    <hyperlink ref="C50" r:id="rId49" location="!/time/44536510"/>
+    <hyperlink ref="C51" r:id="rId50" location="!/time/8319052"/>
+    <hyperlink ref="C52" r:id="rId51" location="!/time/24468241"/>
+    <hyperlink ref="C53" r:id="rId52" location="!/time/25811332"/>
+    <hyperlink ref="C54" r:id="rId53" location="!/time/13707047"/>
+    <hyperlink ref="C55" r:id="rId54" location="!/time/117598"/>
+    <hyperlink ref="C56" r:id="rId55" location="!/time/14124559"/>
+    <hyperlink ref="C57" r:id="rId56" location="!/time/8707471"/>
+    <hyperlink ref="C58" r:id="rId57" location="!/time/20340994"/>
+    <hyperlink ref="C59" r:id="rId58" location="!/time/50189029"/>
+    <hyperlink ref="C60" r:id="rId59" location="!/time/5664592"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica.xlsx
+++ b/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -202,6 +202,9 @@
     <t>Cril Futebol Club</t>
   </si>
   <si>
+    <t>Santo Ângelo United</t>
+  </si>
+  <si>
     <t>https://cartola.globo.com/#!/time/3246608</t>
   </si>
   <si>
@@ -377,6 +380,9 @@
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/5664592</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/18187555</t>
   </si>
 </sst>
 </file>
@@ -747,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,7 +778,7 @@
         <v>3246608</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -783,7 +789,7 @@
         <v>18421230</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -794,7 +800,7 @@
         <v>47546604</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -805,7 +811,7 @@
         <v>3708025</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -816,7 +822,7 @@
         <v>528730</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -827,7 +833,7 @@
         <v>1148959</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -838,7 +844,7 @@
         <v>3447341</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -849,7 +855,7 @@
         <v>896842</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -860,7 +866,7 @@
         <v>29199152</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -871,7 +877,7 @@
         <v>14227419</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -882,7 +888,7 @@
         <v>159074</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -893,7 +899,7 @@
         <v>18223508</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -904,7 +910,7 @@
         <v>28676425</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -915,7 +921,7 @@
         <v>216066</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -926,7 +932,7 @@
         <v>13951133</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -937,7 +943,7 @@
         <v>18344271</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -948,7 +954,7 @@
         <v>18642587</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -959,7 +965,7 @@
         <v>2760207</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -970,7 +976,7 @@
         <v>48498051</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -981,7 +987,7 @@
         <v>25313333</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -992,7 +998,7 @@
         <v>29411306</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1003,7 +1009,7 @@
         <v>479510</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1014,7 +1020,7 @@
         <v>18661583</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1025,7 +1031,7 @@
         <v>3851966</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1036,7 +1042,7 @@
         <v>44574236</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1047,7 +1053,7 @@
         <v>387186</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1058,7 +1064,7 @@
         <v>44810918</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1069,7 +1075,7 @@
         <v>14696986</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1080,7 +1086,7 @@
         <v>18346776</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1091,7 +1097,7 @@
         <v>3914981</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1102,7 +1108,7 @@
         <v>9823692</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1113,7 +1119,7 @@
         <v>47543456</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1124,7 +1130,7 @@
         <v>3424598</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1135,7 +1141,7 @@
         <v>5823700</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1146,7 +1152,7 @@
         <v>29228373</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1157,7 +1163,7 @@
         <v>6148913</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1168,7 +1174,7 @@
         <v>1273719</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1179,7 +1185,7 @@
         <v>4911779</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1190,7 +1196,7 @@
         <v>2602301</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1201,7 +1207,7 @@
         <v>212042</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1212,7 +1218,7 @@
         <v>25565675</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1223,7 +1229,7 @@
         <v>25751748</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1234,7 +1240,7 @@
         <v>49355335</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1245,7 +1251,7 @@
         <v>49180400</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1256,7 +1262,7 @@
         <v>17887202</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1267,7 +1273,7 @@
         <v>186283</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1278,7 +1284,7 @@
         <v>20696550</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1289,7 +1295,7 @@
         <v>25401606</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1300,7 +1306,7 @@
         <v>44536510</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1311,7 +1317,7 @@
         <v>8319052</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1322,7 +1328,7 @@
         <v>24468241</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1333,7 +1339,7 @@
         <v>25811332</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1344,7 +1350,7 @@
         <v>13707047</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1355,7 +1361,7 @@
         <v>117598</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1366,7 +1372,7 @@
         <v>14124559</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1377,7 +1383,7 @@
         <v>8707471</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1388,7 +1394,7 @@
         <v>20340994</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1399,7 +1405,7 @@
         <v>50189029</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1410,7 +1416,18 @@
         <v>5664592</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>18187555</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1474,6 +1491,7 @@
     <hyperlink ref="C58" r:id="rId57" location="!/time/20340994"/>
     <hyperlink ref="C59" r:id="rId58" location="!/time/50189029"/>
     <hyperlink ref="C60" r:id="rId59" location="!/time/5664592"/>
+    <hyperlink ref="C61" r:id="rId60" location="!/time/18187555"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
